--- a/mythril/0.23.15_smartbugs-curated/0.23.15_slither_smartbugs-curated_dasp_soma.xlsx
+++ b/mythril/0.23.15_smartbugs-curated/0.23.15_slither_smartbugs-curated_dasp_soma.xlsx
@@ -447,15 +447,15 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>access_control</t>
+          <t>reentrancy</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -468,81 +468,81 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>denial_service</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>reentrancy</t>
+          <t>unchecked_low_calls</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>unchecked_low_calls</t>
+          <t>access_control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bad_randomness</t>
+          <t>time_manipulation</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>front_running</t>
+          <t>bad_randomness</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>time_manipulation</t>
+          <t>denial_service</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -551,11 +551,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>short_addresses</t>
+          <t>front_running</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -564,11 +564,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>short_addresses</t>
         </is>
       </c>
       <c r="C11" t="n">
